--- a/PinAssign.xlsx
+++ b/PinAssign.xlsx
@@ -846,10 +846,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="A1:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -857,7 +860,7 @@
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -980,7 +983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -994,7 +997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1546,7 +1549,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CMEZ68HC11E Pin Assign&amp;R&amp;D &amp;T</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>